--- a/public/download/actualisation/NRG-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/NRG-donnees-branches-2018_actualisation-2021.xlsx
@@ -448,10 +448,10 @@
     <t xml:space="preserve">38878</t>
   </si>
   <si>
-    <t xml:space="preserve">17445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18014</t>
+    <t xml:space="preserve">17444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18013</t>
   </si>
   <si>
     <t xml:space="preserve">INDUSTRIE CHIMIQUE</t>
@@ -493,10 +493,10 @@
     <t xml:space="preserve">54950</t>
   </si>
   <si>
-    <t xml:space="preserve">12677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13090</t>
+    <t xml:space="preserve">12676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13089</t>
   </si>
   <si>
     <t xml:space="preserve">MÉTALLURGIE ET FABRICATION DE PRODUITS MÉTALLIQUES, HORS MACHINES ET ÉQUIPEMENTS</t>
@@ -568,10 +568,10 @@
     <t xml:space="preserve">144733</t>
   </si>
   <si>
-    <t xml:space="preserve">7195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7430</t>
+    <t xml:space="preserve">7194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7428</t>
   </si>
   <si>
     <t xml:space="preserve">AUTRES INDUSTRIES MANUFACTURIÈRES ; RÉPARATION ET INSTALLATION DE MACHINES ET D'ÉQUIPEMENTS</t>
@@ -748,10 +748,10 @@
     <t xml:space="preserve">325984</t>
   </si>
   <si>
-    <t xml:space="preserve">2611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2696</t>
+    <t xml:space="preserve">2610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2695</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVITÉS JURIDIQUES, COMPTABLES, DE GESTION, D'ARCHITECTURE, D'INGÉNIERIE, DE CONTRÔLE ET D'ANALYSES TECHNIQUES</t>
@@ -934,19 +934,19 @@
     <t xml:space="preserve">92131</t>
   </si>
   <si>
-    <t xml:space="preserve">9265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9567</t>
+    <t xml:space="preserve">9264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9565,9</t>
   </si>
   <si>
     <t xml:space="preserve">46079</t>
   </si>
   <si>
-    <t xml:space="preserve">15066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15557</t>
+    <t xml:space="preserve">15065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15556</t>
   </si>
   <si>
     <t xml:space="preserve">217841</t>
@@ -961,73 +961,73 @@
     <t xml:space="preserve">56600</t>
   </si>
   <si>
-    <t xml:space="preserve">6991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7219</t>
+    <t xml:space="preserve">6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7217,8</t>
   </si>
   <si>
     <t xml:space="preserve">50770</t>
   </si>
   <si>
-    <t xml:space="preserve">12981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13404</t>
+    <t xml:space="preserve">12980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13403,1</t>
   </si>
   <si>
     <t xml:space="preserve">63598</t>
   </si>
   <si>
-    <t xml:space="preserve">17553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18125</t>
+    <t xml:space="preserve">17552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18124,1</t>
   </si>
   <si>
     <t xml:space="preserve">112677</t>
   </si>
   <si>
-    <t xml:space="preserve">15023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15513</t>
+    <t xml:space="preserve">15022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15511,6</t>
   </si>
   <si>
     <t xml:space="preserve">53523</t>
   </si>
   <si>
-    <t xml:space="preserve">6468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6679</t>
+    <t xml:space="preserve">6467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6677,8</t>
   </si>
   <si>
     <t xml:space="preserve">81954</t>
   </si>
   <si>
-    <t xml:space="preserve">12782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13199</t>
+    <t xml:space="preserve">12781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13197,6</t>
   </si>
   <si>
     <t xml:space="preserve">129235</t>
   </si>
   <si>
-    <t xml:space="preserve">13572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14014</t>
+    <t xml:space="preserve">13571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14013,3</t>
   </si>
   <si>
     <t xml:space="preserve">74079</t>
   </si>
   <si>
-    <t xml:space="preserve">6918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7143</t>
+    <t xml:space="preserve">6917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7142,4</t>
   </si>
   <si>
     <t xml:space="preserve">49593</t>
@@ -1036,16 +1036,16 @@
     <t xml:space="preserve">7829</t>
   </si>
   <si>
-    <t xml:space="preserve">8084</t>
+    <t xml:space="preserve">8084,2</t>
   </si>
   <si>
     <t xml:space="preserve">84430</t>
   </si>
   <si>
-    <t xml:space="preserve">7414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7656</t>
+    <t xml:space="preserve">7413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7654,6</t>
   </si>
   <si>
     <t xml:space="preserve">247901</t>
@@ -1054,7 +1054,7 @@
     <t xml:space="preserve">7256</t>
   </si>
   <si>
-    <t xml:space="preserve">7492</t>
+    <t xml:space="preserve">7492,5</t>
   </si>
   <si>
     <t xml:space="preserve">108548</t>
@@ -1063,7 +1063,7 @@
     <t xml:space="preserve">5722</t>
   </si>
   <si>
-    <t xml:space="preserve">5908</t>
+    <t xml:space="preserve">5908,5</t>
   </si>
   <si>
     <t xml:space="preserve">125622</t>
@@ -1072,7 +1072,7 @@
     <t xml:space="preserve">58946</t>
   </si>
   <si>
-    <t xml:space="preserve">60867</t>
+    <t xml:space="preserve">60867,2</t>
   </si>
   <si>
     <t xml:space="preserve">53431</t>
@@ -1081,7 +1081,7 @@
     <t xml:space="preserve">6695</t>
   </si>
   <si>
-    <t xml:space="preserve">6913</t>
+    <t xml:space="preserve">6913,2</t>
   </si>
   <si>
     <t xml:space="preserve">298417</t>
@@ -1090,7 +1090,7 @@
     <t xml:space="preserve">5435</t>
   </si>
   <si>
-    <t xml:space="preserve">5612</t>
+    <t xml:space="preserve">5612,1</t>
   </si>
   <si>
     <t xml:space="preserve">451825</t>
@@ -1099,16 +1099,16 @@
     <t xml:space="preserve">4180</t>
   </si>
   <si>
-    <t xml:space="preserve">4316</t>
+    <t xml:space="preserve">4316,2</t>
   </si>
   <si>
     <t xml:space="preserve">246436</t>
   </si>
   <si>
-    <t xml:space="preserve">8919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9210</t>
+    <t xml:space="preserve">8918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9208,7</t>
   </si>
   <si>
     <t xml:space="preserve">115922</t>
@@ -1117,7 +1117,7 @@
     <t xml:space="preserve">5379</t>
   </si>
   <si>
-    <t xml:space="preserve">5554</t>
+    <t xml:space="preserve">5554,3</t>
   </si>
   <si>
     <t xml:space="preserve">63985</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">6380</t>
   </si>
   <si>
-    <t xml:space="preserve">6588</t>
+    <t xml:space="preserve">6587,9</t>
   </si>
   <si>
     <t xml:space="preserve">58702</t>
@@ -1135,7 +1135,7 @@
     <t xml:space="preserve">5269</t>
   </si>
   <si>
-    <t xml:space="preserve">5441</t>
+    <t xml:space="preserve">5440,7</t>
   </si>
   <si>
     <t xml:space="preserve">114519</t>
@@ -1144,7 +1144,7 @@
     <t xml:space="preserve">2833</t>
   </si>
   <si>
-    <t xml:space="preserve">2925</t>
+    <t xml:space="preserve">2925,3</t>
   </si>
   <si>
     <t xml:space="preserve">237250</t>
@@ -1153,7 +1153,7 @@
     <t xml:space="preserve">3019</t>
   </si>
   <si>
-    <t xml:space="preserve">3117</t>
+    <t xml:space="preserve">3117,4</t>
   </si>
   <si>
     <t xml:space="preserve">331336</t>
@@ -1162,7 +1162,7 @@
     <t xml:space="preserve">2616</t>
   </si>
   <si>
-    <t xml:space="preserve">2701</t>
+    <t xml:space="preserve">2701,3</t>
   </si>
   <si>
     <t xml:space="preserve">290235</t>
@@ -1171,7 +1171,7 @@
     <t xml:space="preserve">2973</t>
   </si>
   <si>
-    <t xml:space="preserve">3070</t>
+    <t xml:space="preserve">3069,9</t>
   </si>
   <si>
     <t xml:space="preserve">74905</t>
@@ -1180,7 +1180,7 @@
     <t xml:space="preserve">4065</t>
   </si>
   <si>
-    <t xml:space="preserve">4197</t>
+    <t xml:space="preserve">4197,5</t>
   </si>
   <si>
     <t xml:space="preserve">45495</t>
@@ -1189,7 +1189,7 @@
     <t xml:space="preserve">3882</t>
   </si>
   <si>
-    <t xml:space="preserve">4009</t>
+    <t xml:space="preserve">4008,5</t>
   </si>
   <si>
     <t xml:space="preserve">250449</t>
@@ -1198,7 +1198,7 @@
     <t xml:space="preserve">3456</t>
   </si>
   <si>
-    <t xml:space="preserve">3569</t>
+    <t xml:space="preserve">3568,6</t>
   </si>
   <si>
     <t xml:space="preserve">196594</t>
@@ -1207,7 +1207,7 @@
     <t xml:space="preserve">3578</t>
   </si>
   <si>
-    <t xml:space="preserve">3695</t>
+    <t xml:space="preserve">3694,6</t>
   </si>
   <si>
     <t xml:space="preserve">137165</t>
@@ -1216,7 +1216,7 @@
     <t xml:space="preserve">2711</t>
   </si>
   <si>
-    <t xml:space="preserve">2799</t>
+    <t xml:space="preserve">2799,4</t>
   </si>
   <si>
     <t xml:space="preserve">169428</t>
@@ -1225,7 +1225,7 @@
     <t xml:space="preserve">2605</t>
   </si>
   <si>
-    <t xml:space="preserve">2690</t>
+    <t xml:space="preserve">2689,9</t>
   </si>
   <si>
     <t xml:space="preserve">84247</t>
@@ -1234,7 +1234,7 @@
     <t xml:space="preserve">2771</t>
   </si>
   <si>
-    <t xml:space="preserve">2861</t>
+    <t xml:space="preserve">2861,3</t>
   </si>
   <si>
     <t xml:space="preserve">54651</t>
@@ -1243,7 +1243,7 @@
     <t xml:space="preserve">5693</t>
   </si>
   <si>
-    <t xml:space="preserve">5879</t>
+    <t xml:space="preserve">5878,6</t>
   </si>
   <si>
     <t xml:space="preserve">47773</t>
@@ -1252,7 +1252,7 @@
     <t xml:space="preserve">3573</t>
   </si>
   <si>
-    <t xml:space="preserve">3689</t>
+    <t xml:space="preserve">3689,5</t>
   </si>
   <si>
     <t xml:space="preserve">4918916</t>
@@ -1261,7 +1261,7 @@
     <t xml:space="preserve">7233</t>
   </si>
   <si>
-    <t xml:space="preserve">7469</t>
+    <t xml:space="preserve">7468,7</t>
   </si>
 </sst>
 </file>
@@ -3837,9 +3837,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{205AD820-2D2E-4B82-8673-7521C748232F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68EB2DDD-4697-4788-BB9B-E0D1026B9E33}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B31E632-4ABC-40A6-BB92-78B52E871698}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E0AEBB-D58C-4609-BA9F-6EE78A069AAF}"/>
 </file>